--- a/biology/Botanique/Alseuosmiaceae/Alseuosmiaceae.xlsx
+++ b/biology/Botanique/Alseuosmiaceae/Alseuosmiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Alseuosmiacées regroupe des plantes dicotylédones ; elle comprend 11 espèces réparties en 3 à 5 genres.
 Ce sont des arbustes originaires de Nouvelle-Calédonie, Nouvelle-Zélande, Nouvelle-Guinée et d'Australie.
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Alseuosmia, composé des mots grecs άλσος / alsos, « bois ; bois sacré », et οσμή / osme, « odeur ; parfum », en référence aux fleurs fortement parfumées de ces plantes.
 </t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG II (2003)[1] et la classification phylogénétique APG III (2009)[2] placent cette famille dans l'ordre des Asterales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) placent cette famille dans l'ordre des Asterales.
 </t>
         </is>
       </c>
@@ -575,14 +591,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[3] et NCBI  (12 nov. 2015)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) et NCBI  (12 nov. 2015) :
 Alseuosmia (en)
 Crispiloba (en)
 Platyspermation (en)
 Wittsteinia (en)
-Selon DELTA Angio           (12 nov. 2015)[5] :
+Selon DELTA Angio           (12 nov. 2015) :
 Alseuosmia
 Crispiloba
 Wittsteinia</t>
@@ -613,9 +631,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (12 nov. 2015)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 nov. 2015) :
 genre Alseuosmia
 Alseuosmia banksii
 Alseuosmia macrophylla
